--- a/git.xlsx
+++ b/git.xlsx
@@ -629,6 +629,224 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>git reset file</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="1685925"/>
+          <a:ext cx="2371725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="640112" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1333500"/>
+          <a:ext cx="640112" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git push</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="2514600"/>
+          <a:ext cx="2371725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2181225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="575607" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267575" y="2209800"/>
+          <a:ext cx="575607" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git pull</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -927,7 +1145,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -847,6 +847,226 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>git pull</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="3390900"/>
+          <a:ext cx="2371725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="555152" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="3095625"/>
+          <a:ext cx="555152" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git diff</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1228725" y="3886200"/>
+          <a:ext cx="6096000" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1208536" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="3562350"/>
+          <a:ext cx="1208536" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git diff HEAD --file</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1144,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -310,13 +310,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
@@ -357,7 +357,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2152650</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -419,13 +419,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
@@ -466,7 +466,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2171700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -528,13 +528,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
@@ -576,7 +576,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2124075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -638,13 +638,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>409575</xdr:rowOff>
@@ -685,7 +685,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2076450</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -747,13 +747,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1390650</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
@@ -794,7 +794,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2181225</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -856,13 +856,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
@@ -904,7 +904,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2076450</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -966,13 +966,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2238375</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
@@ -1014,7 +1014,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2066925</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1067,6 +1067,116 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>git diff HEAD --file</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1171575"/>
+          <a:ext cx="2371725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1182375" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="847725"/>
+          <a:ext cx="1182375" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git checkout --file</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1362,183 +1472,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="2" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.25" customHeight="1" thickTop="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A3" s="5"/>
+    <row r="2" spans="2:5" ht="35.25" customHeight="1" thickTop="1">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:5" ht="35.25" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A4" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:5" ht="35.25" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="35.25" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A6" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" ht="35.25" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A7" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" ht="35.25" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A8" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" ht="35.25" customHeight="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A9" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="35.25" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" ht="35.25" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A11" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" ht="35.25" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A12" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="35.25" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A13" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" ht="35.25" customHeight="1">
       <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A14" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" ht="35.25" customHeight="1">
       <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A15" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="35.25" customHeight="1">
       <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A16" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" ht="35.25" customHeight="1">
       <c r="B16" s="5"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="35.25" customHeight="1">
       <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A18" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="35.25" customHeight="1">
       <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A19" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="35.25" customHeight="1">
       <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A20" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" ht="35.25" customHeight="1">
       <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A21" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="35.25" customHeight="1">
       <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A22" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="35.25" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A23" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" ht="35.25" customHeight="1">
       <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A24" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="35.25" customHeight="1">
       <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A25" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" ht="35.25" customHeight="1">
       <c r="B25" s="5"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A26" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="B26" s="6"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" thickTop="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" ht="12.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8955"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="github" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>WORK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,109 @@
   </si>
   <si>
     <t>Remote区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/seidogao/learngit2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seidogao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15921828506@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seido123GYQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1步：创建SSH Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ ssh-keygen -t rsa -C "15921828506@163.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_rsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_rsa.pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2步：登陆GitHub，打开“Account settings”，“SSH Keys”页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Add SSH Key”，填上任意Title，在Key文本框里粘贴id_rsa.pub文件的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>known_hosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆项目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone git@github.com:seidogao/learngit2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">当你第一次使用Git的clone或者push命令连接GitHub时，会得到一个警告：
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The authenticity of host 'github.com (xx.xx.xx.xx)' can't be established.
+RSA key fingerprint is xx.xx.xx.xx.xx.
+Are you sure you want to continue connecting (yes/no)?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning: Permanently added 'github.com' (RSA) to the list of known hosts.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -53,6 +156,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,12 +360,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,8 +412,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1474,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1658,13 +1786,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="10" max="10" width="64.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="72">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/git.xlsx
+++ b/git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>WORK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>克隆项目：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clone git@github.com:seidogao/learngit2018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,6 +130,20 @@
   </si>
   <si>
     <t>Warning: Permanently added 'github.com' (RSA) to the list of known hosts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">origin  git@github.com:seidogao/learngit2018 (fetch)
+origin  git@github.com:seidogao/learngit2018 (push)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git clone git@github.com:seidogao/learngit2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git remote -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +379,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1603,7 +1616,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1786,16 +1799,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
     <col min="10" max="10" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1887,27 +1900,40 @@
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36">
+      <c r="C23" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="72">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="72">
-      <c r="A23" t="s">
+      <c r="C24" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
